--- a/Scheduler/rankings/Rankings_2024_Q3.xlsx
+++ b/Scheduler/rankings/Rankings_2024_Q3.xlsx
@@ -1659,7 +1659,7 @@
       </c>
       <c r="J5" s="53" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>▲33</t>
         </is>
       </c>
       <c r="K5" s="7" t="inlineStr">
@@ -1672,7 +1672,7 @@
       </c>
       <c r="M5" s="53" t="inlineStr">
         <is>
-          <t>▲1</t>
+          <t>▲33</t>
         </is>
       </c>
       <c r="N5" s="25" t="inlineStr">
@@ -1698,7 +1698,7 @@
       </c>
       <c r="S5" s="53" t="inlineStr">
         <is>
-          <t>▲1</t>
+          <t>-</t>
         </is>
       </c>
       <c r="T5" s="7" t="inlineStr">
@@ -1784,7 +1784,7 @@
       </c>
       <c r="G6" s="50" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>▲1</t>
         </is>
       </c>
       <c r="H6" s="8" t="inlineStr">
@@ -1797,7 +1797,7 @@
       </c>
       <c r="J6" s="56" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>▲1</t>
         </is>
       </c>
       <c r="K6" s="8" t="inlineStr">
@@ -1810,7 +1810,7 @@
       </c>
       <c r="M6" s="56" t="inlineStr">
         <is>
-          <t>▼1</t>
+          <t>▲19</t>
         </is>
       </c>
       <c r="N6" s="29" t="inlineStr">
@@ -1823,7 +1823,7 @@
       </c>
       <c r="P6" s="56" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>▲1</t>
         </is>
       </c>
       <c r="Q6" s="8" t="inlineStr">
@@ -1836,7 +1836,7 @@
       </c>
       <c r="S6" s="56" t="inlineStr">
         <is>
-          <t>▲22</t>
+          <t>▲30</t>
         </is>
       </c>
       <c r="T6" s="8" t="inlineStr">
@@ -1922,7 +1922,7 @@
       </c>
       <c r="G7" s="50" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>▼1</t>
         </is>
       </c>
       <c r="H7" s="8" t="inlineStr">
@@ -1935,7 +1935,7 @@
       </c>
       <c r="J7" s="56" t="inlineStr">
         <is>
-          <t>▲2</t>
+          <t>▼2</t>
         </is>
       </c>
       <c r="K7" s="8" t="inlineStr">
@@ -1961,7 +1961,7 @@
       </c>
       <c r="P7" s="56" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>▼1</t>
         </is>
       </c>
       <c r="Q7" s="8" t="inlineStr">
@@ -1974,7 +1974,7 @@
       </c>
       <c r="S7" s="56" t="inlineStr">
         <is>
-          <t>▼2</t>
+          <t>▲2</t>
         </is>
       </c>
       <c r="T7" s="8" t="inlineStr">
@@ -2000,7 +2000,7 @@
       </c>
       <c r="Y7" s="51" t="inlineStr">
         <is>
-          <t>▲1</t>
+          <t>▲2</t>
         </is>
       </c>
       <c r="Z7" s="8" t="inlineStr">
@@ -2013,7 +2013,7 @@
       </c>
       <c r="AB7" s="51" t="inlineStr">
         <is>
-          <t>▲1</t>
+          <t>▲2</t>
         </is>
       </c>
       <c r="AC7" s="8" t="inlineStr">
@@ -2060,7 +2060,7 @@
       </c>
       <c r="G8" s="51" t="inlineStr">
         <is>
-          <t>▲3</t>
+          <t>▲4</t>
         </is>
       </c>
       <c r="H8" s="8" t="inlineStr">
@@ -2073,7 +2073,7 @@
       </c>
       <c r="J8" s="50" t="inlineStr">
         <is>
-          <t>▼1</t>
+          <t>▲2</t>
         </is>
       </c>
       <c r="K8" s="8" t="inlineStr">
@@ -2099,7 +2099,7 @@
       </c>
       <c r="P8" s="56" t="inlineStr">
         <is>
-          <t>▲25</t>
+          <t>▲21</t>
         </is>
       </c>
       <c r="Q8" s="8" t="inlineStr">
@@ -2112,7 +2112,7 @@
       </c>
       <c r="S8" s="56" t="inlineStr">
         <is>
-          <t>▲3</t>
+          <t>▲7</t>
         </is>
       </c>
       <c r="T8" s="8" t="inlineStr">
@@ -2211,7 +2211,7 @@
       </c>
       <c r="J9" s="56" t="inlineStr">
         <is>
-          <t>▲1</t>
+          <t>▲2</t>
         </is>
       </c>
       <c r="K9" s="8" t="inlineStr">
@@ -2224,7 +2224,7 @@
       </c>
       <c r="M9" s="56" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>▼4</t>
         </is>
       </c>
       <c r="N9" s="29" t="inlineStr">
@@ -2250,7 +2250,7 @@
       </c>
       <c r="S9" s="56" t="inlineStr">
         <is>
-          <t>▼1</t>
+          <t>▲22</t>
         </is>
       </c>
       <c r="T9" s="8" t="inlineStr">
@@ -2276,7 +2276,7 @@
       </c>
       <c r="Y9" s="51" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>▼1</t>
         </is>
       </c>
       <c r="Z9" s="8" t="inlineStr">
@@ -2289,7 +2289,7 @@
       </c>
       <c r="AB9" s="51" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>▼1</t>
         </is>
       </c>
       <c r="AC9" s="8" t="inlineStr">
@@ -2336,7 +2336,7 @@
       </c>
       <c r="G10" s="51" t="inlineStr">
         <is>
-          <t>▼2</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H10" s="96" t="inlineStr">
@@ -2349,7 +2349,7 @@
       </c>
       <c r="J10" s="51" t="inlineStr">
         <is>
-          <t>▲4</t>
+          <t>▲8</t>
         </is>
       </c>
       <c r="K10" s="28" t="inlineStr">
@@ -2362,7 +2362,7 @@
       </c>
       <c r="M10" s="60" t="inlineStr">
         <is>
-          <t>▲1</t>
+          <t>▲4</t>
         </is>
       </c>
       <c r="N10" s="8" t="inlineStr">
@@ -2388,7 +2388,7 @@
       </c>
       <c r="S10" s="56" t="inlineStr">
         <is>
-          <t>▼1</t>
+          <t>▼2</t>
         </is>
       </c>
       <c r="T10" s="8" t="inlineStr">
@@ -2414,7 +2414,7 @@
       </c>
       <c r="Y10" s="51" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>▲1</t>
         </is>
       </c>
       <c r="Z10" s="8" t="inlineStr">
@@ -2427,7 +2427,7 @@
       </c>
       <c r="AB10" s="51" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>▲1</t>
         </is>
       </c>
       <c r="AC10" s="8" t="inlineStr">
@@ -2474,7 +2474,7 @@
       </c>
       <c r="G11" s="50" t="inlineStr">
         <is>
-          <t>▼1</t>
+          <t>▼3</t>
         </is>
       </c>
       <c r="H11" s="96" t="inlineStr">
@@ -2487,7 +2487,7 @@
       </c>
       <c r="J11" s="51" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>▲3</t>
         </is>
       </c>
       <c r="K11" s="28" t="inlineStr">
@@ -2500,7 +2500,7 @@
       </c>
       <c r="M11" s="60" t="inlineStr">
         <is>
-          <t>▼1</t>
+          <t>-</t>
         </is>
       </c>
       <c r="N11" s="8" t="inlineStr">
@@ -2513,7 +2513,7 @@
       </c>
       <c r="P11" s="51" t="inlineStr">
         <is>
-          <t>▼2</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Q11" s="95" t="inlineStr">
@@ -2526,7 +2526,7 @@
       </c>
       <c r="S11" s="56" t="inlineStr">
         <is>
-          <t>▲4</t>
+          <t>▲17</t>
         </is>
       </c>
       <c r="T11" s="8" t="inlineStr">
@@ -2552,7 +2552,7 @@
       </c>
       <c r="Y11" s="51" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>▼1</t>
         </is>
       </c>
       <c r="Z11" s="8" t="inlineStr">
@@ -2565,7 +2565,7 @@
       </c>
       <c r="AB11" s="51" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>▲1</t>
         </is>
       </c>
       <c r="AC11" s="8" t="inlineStr">
@@ -2612,7 +2612,7 @@
       </c>
       <c r="G12" s="51" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>▼1</t>
         </is>
       </c>
       <c r="H12" s="96" t="inlineStr">
@@ -2625,7 +2625,7 @@
       </c>
       <c r="J12" s="51" t="inlineStr">
         <is>
-          <t>▲1</t>
+          <t>▲3</t>
         </is>
       </c>
       <c r="K12" s="28" t="inlineStr">
@@ -2638,7 +2638,7 @@
       </c>
       <c r="M12" s="60" t="inlineStr">
         <is>
-          <t>▲6</t>
+          <t>▼3</t>
         </is>
       </c>
       <c r="N12" s="8" t="inlineStr">
@@ -2651,7 +2651,7 @@
       </c>
       <c r="P12" s="51" t="inlineStr">
         <is>
-          <t>▼1</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Q12" s="95" t="inlineStr">
@@ -2664,7 +2664,7 @@
       </c>
       <c r="S12" s="56" t="inlineStr">
         <is>
-          <t>▼2</t>
+          <t>-</t>
         </is>
       </c>
       <c r="T12" s="8" t="inlineStr">
@@ -2703,7 +2703,7 @@
       </c>
       <c r="AB12" s="51" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>▼2</t>
         </is>
       </c>
       <c r="AC12" s="10" t="inlineStr">
@@ -2750,7 +2750,7 @@
       </c>
       <c r="G13" s="51" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>▲27</t>
         </is>
       </c>
       <c r="H13" s="96" t="inlineStr">
@@ -2763,7 +2763,7 @@
       </c>
       <c r="J13" s="51" t="inlineStr">
         <is>
-          <t>▼1</t>
+          <t>▼4</t>
         </is>
       </c>
       <c r="K13" s="28" t="inlineStr">
@@ -2776,7 +2776,7 @@
       </c>
       <c r="M13" s="60" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>▲5</t>
         </is>
       </c>
       <c r="N13" s="8" t="inlineStr">
@@ -2789,7 +2789,7 @@
       </c>
       <c r="P13" s="51" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>▲1</t>
         </is>
       </c>
       <c r="Q13" s="95" t="inlineStr">
@@ -2802,7 +2802,7 @@
       </c>
       <c r="S13" s="56" t="inlineStr">
         <is>
-          <t>▼1</t>
+          <t>-</t>
         </is>
       </c>
       <c r="T13" s="8" t="inlineStr">
@@ -2888,7 +2888,7 @@
       </c>
       <c r="G14" s="55" t="inlineStr">
         <is>
-          <t>▲2</t>
+          <t>▲3</t>
         </is>
       </c>
       <c r="H14" s="98" t="inlineStr">
@@ -2901,7 +2901,7 @@
       </c>
       <c r="J14" s="52" t="inlineStr">
         <is>
-          <t>▲3</t>
+          <t>▲6</t>
         </is>
       </c>
       <c r="K14" s="15" t="inlineStr">
@@ -2914,7 +2914,7 @@
       </c>
       <c r="M14" s="61" t="inlineStr">
         <is>
-          <t>▼2</t>
+          <t>▼1</t>
         </is>
       </c>
       <c r="N14" s="11" t="inlineStr">
@@ -2927,7 +2927,7 @@
       </c>
       <c r="P14" s="52" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>▼5</t>
         </is>
       </c>
       <c r="Q14" s="99" t="inlineStr">
@@ -2940,7 +2940,7 @@
       </c>
       <c r="S14" s="54" t="inlineStr">
         <is>
-          <t>▼7</t>
+          <t>▲6</t>
         </is>
       </c>
       <c r="T14" s="11" t="inlineStr">
@@ -3026,7 +3026,7 @@
       </c>
       <c r="G15" s="53" t="inlineStr">
         <is>
-          <t>▼1</t>
+          <t>▼2</t>
         </is>
       </c>
       <c r="H15" s="100" t="inlineStr">
@@ -3039,7 +3039,7 @@
       </c>
       <c r="J15" s="53" t="inlineStr">
         <is>
-          <t>▲3</t>
+          <t>▲20</t>
         </is>
       </c>
       <c r="K15" s="24" t="inlineStr">
@@ -3052,7 +3052,7 @@
       </c>
       <c r="M15" s="62" t="inlineStr">
         <is>
-          <t>▲1</t>
+          <t>▲5</t>
         </is>
       </c>
       <c r="N15" s="7" t="inlineStr">
@@ -3065,7 +3065,7 @@
       </c>
       <c r="P15" s="53" t="inlineStr">
         <is>
-          <t>▼3</t>
+          <t>▲1</t>
         </is>
       </c>
       <c r="Q15" s="93" t="inlineStr">
@@ -3078,7 +3078,7 @@
       </c>
       <c r="S15" s="58" t="inlineStr">
         <is>
-          <t>▲2</t>
+          <t>▼9</t>
         </is>
       </c>
       <c r="T15" s="7" t="inlineStr">
@@ -3096,7 +3096,7 @@
       </c>
       <c r="W15" s="7" t="inlineStr">
         <is>
-          <t>SK증권</t>
+          <t>교보증권</t>
         </is>
       </c>
       <c r="X15" s="7" t="n">
@@ -3117,7 +3117,7 @@
       </c>
       <c r="AB15" s="53" t="inlineStr">
         <is>
-          <t>▲1</t>
+          <t>-</t>
         </is>
       </c>
       <c r="AC15" s="7" t="inlineStr">
@@ -3164,7 +3164,7 @@
       </c>
       <c r="G16" s="51" t="inlineStr">
         <is>
-          <t>▼1</t>
+          <t>▼2</t>
         </is>
       </c>
       <c r="H16" s="96" t="inlineStr">
@@ -3190,7 +3190,7 @@
       </c>
       <c r="M16" s="60" t="inlineStr">
         <is>
-          <t>▼1</t>
+          <t>▲3</t>
         </is>
       </c>
       <c r="N16" s="8" t="inlineStr">
@@ -3216,7 +3216,7 @@
       </c>
       <c r="S16" s="56" t="inlineStr">
         <is>
-          <t>▼3</t>
+          <t>▼2</t>
         </is>
       </c>
       <c r="T16" s="8" t="inlineStr">
@@ -3229,12 +3229,12 @@
       </c>
       <c r="V16" s="51" t="inlineStr">
         <is>
-          <t>▲1</t>
+          <t>▲2</t>
         </is>
       </c>
       <c r="W16" s="8" t="inlineStr">
         <is>
-          <t>교보증권</t>
+          <t>SK증권</t>
         </is>
       </c>
       <c r="X16" s="8" t="n">
@@ -3242,7 +3242,7 @@
       </c>
       <c r="Y16" s="51" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>▲1</t>
         </is>
       </c>
       <c r="Z16" s="8" t="inlineStr">
@@ -3255,7 +3255,7 @@
       </c>
       <c r="AB16" s="51" t="inlineStr">
         <is>
-          <t>▼1</t>
+          <t>-</t>
         </is>
       </c>
       <c r="AC16" s="8" t="inlineStr">
@@ -3302,7 +3302,7 @@
       </c>
       <c r="G17" s="50" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>▲2</t>
         </is>
       </c>
       <c r="H17" s="96" t="inlineStr">
@@ -3328,7 +3328,7 @@
       </c>
       <c r="M17" s="60" t="inlineStr">
         <is>
-          <t>▲5</t>
+          <t>▲7</t>
         </is>
       </c>
       <c r="N17" s="8" t="inlineStr">
@@ -3341,7 +3341,7 @@
       </c>
       <c r="P17" s="51" t="inlineStr">
         <is>
-          <t>▼1</t>
+          <t>▼4</t>
         </is>
       </c>
       <c r="Q17" s="95" t="inlineStr">
@@ -3354,7 +3354,7 @@
       </c>
       <c r="S17" s="56" t="inlineStr">
         <is>
-          <t>▲7</t>
+          <t>▲10</t>
         </is>
       </c>
       <c r="T17" s="8" t="inlineStr">
@@ -3393,7 +3393,7 @@
       </c>
       <c r="AB17" s="51" t="inlineStr">
         <is>
-          <t>▲1</t>
+          <t>-</t>
         </is>
       </c>
       <c r="AC17" s="8" t="inlineStr">
@@ -3440,7 +3440,7 @@
       </c>
       <c r="G18" s="51" t="inlineStr">
         <is>
-          <t>▲1</t>
+          <t>▲20</t>
         </is>
       </c>
       <c r="H18" s="96" t="inlineStr">
@@ -3453,7 +3453,7 @@
       </c>
       <c r="J18" s="51" t="inlineStr">
         <is>
-          <t>▲4</t>
+          <t>▲9</t>
         </is>
       </c>
       <c r="K18" s="28" t="inlineStr">
@@ -3466,7 +3466,7 @@
       </c>
       <c r="M18" s="60" t="inlineStr">
         <is>
-          <t>▼4</t>
+          <t>▼6</t>
         </is>
       </c>
       <c r="N18" s="8" t="inlineStr">
@@ -3492,7 +3492,7 @@
       </c>
       <c r="S18" s="56" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>▼11</t>
         </is>
       </c>
       <c r="T18" s="8" t="inlineStr">
@@ -3505,7 +3505,7 @@
       </c>
       <c r="V18" s="51" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>▲1</t>
         </is>
       </c>
       <c r="W18" s="8" t="inlineStr">
@@ -3518,7 +3518,7 @@
       </c>
       <c r="Y18" s="51" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>▲1</t>
         </is>
       </c>
       <c r="Z18" s="8" t="inlineStr">
@@ -3531,7 +3531,7 @@
       </c>
       <c r="AB18" s="51" t="inlineStr">
         <is>
-          <t>▼1</t>
+          <t>▲1</t>
         </is>
       </c>
       <c r="AC18" s="8" t="inlineStr">
@@ -3565,7 +3565,7 @@
       </c>
       <c r="D19" s="51" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>▲1</t>
         </is>
       </c>
       <c r="E19" s="8" t="inlineStr">
@@ -3578,7 +3578,7 @@
       </c>
       <c r="G19" s="51" t="inlineStr">
         <is>
-          <t>▼1</t>
+          <t>▲7</t>
         </is>
       </c>
       <c r="H19" s="96" t="inlineStr">
@@ -3596,7 +3596,7 @@
       </c>
       <c r="K19" s="28" t="inlineStr">
         <is>
-          <t>미래에셋증권</t>
+          <t>코리아에셋투자증권</t>
         </is>
       </c>
       <c r="L19" s="56" t="n">
@@ -3604,7 +3604,7 @@
       </c>
       <c r="M19" s="60" t="inlineStr">
         <is>
-          <t>▲6</t>
+          <t>▲16</t>
         </is>
       </c>
       <c r="N19" s="8" t="inlineStr">
@@ -3617,7 +3617,7 @@
       </c>
       <c r="P19" s="51" t="inlineStr">
         <is>
-          <t>▼1</t>
+          <t>▼2</t>
         </is>
       </c>
       <c r="Q19" s="95" t="inlineStr">
@@ -3643,7 +3643,7 @@
       </c>
       <c r="V19" s="51" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>▼2</t>
         </is>
       </c>
       <c r="W19" s="8" t="inlineStr">
@@ -3656,7 +3656,7 @@
       </c>
       <c r="Y19" s="51" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>▼2</t>
         </is>
       </c>
       <c r="Z19" s="8" t="inlineStr">
@@ -3669,7 +3669,7 @@
       </c>
       <c r="AB19" s="51" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>▲1</t>
         </is>
       </c>
       <c r="AC19" s="8" t="inlineStr">
@@ -3703,7 +3703,7 @@
       </c>
       <c r="D20" s="51" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>▼1</t>
         </is>
       </c>
       <c r="E20" s="8" t="inlineStr">
@@ -3716,7 +3716,7 @@
       </c>
       <c r="G20" s="51" t="inlineStr">
         <is>
-          <t>▲5</t>
+          <t>▼2</t>
         </is>
       </c>
       <c r="H20" s="96" t="inlineStr">
@@ -3729,12 +3729,12 @@
       </c>
       <c r="J20" s="57" t="inlineStr">
         <is>
-          <t>▲4</t>
+          <t>▼7</t>
         </is>
       </c>
       <c r="K20" s="35" t="inlineStr">
         <is>
-          <t>코리아에셋투자증권</t>
+          <t>미래에셋증권</t>
         </is>
       </c>
       <c r="L20" s="59" t="n">
@@ -3742,7 +3742,7 @@
       </c>
       <c r="M20" s="60" t="inlineStr">
         <is>
-          <t>▲5</t>
+          <t>▲13</t>
         </is>
       </c>
       <c r="N20" s="8" t="inlineStr">
@@ -3755,7 +3755,7 @@
       </c>
       <c r="P20" s="51" t="inlineStr">
         <is>
-          <t>▼3</t>
+          <t>▼2</t>
         </is>
       </c>
       <c r="Q20" s="95" t="inlineStr">
@@ -3768,7 +3768,7 @@
       </c>
       <c r="S20" s="56" t="inlineStr">
         <is>
-          <t>▲13</t>
+          <t>▲15</t>
         </is>
       </c>
       <c r="T20" s="8" t="inlineStr">
@@ -3807,7 +3807,7 @@
       </c>
       <c r="AB20" s="51" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>▲2</t>
         </is>
       </c>
       <c r="AC20" s="8" t="inlineStr">
@@ -3854,7 +3854,7 @@
       </c>
       <c r="G21" s="51" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>▲7</t>
         </is>
       </c>
       <c r="H21" s="96" t="inlineStr">
@@ -3867,7 +3867,7 @@
       </c>
       <c r="J21" s="51" t="inlineStr">
         <is>
-          <t>▼2</t>
+          <t>▲2</t>
         </is>
       </c>
       <c r="K21" s="28" t="inlineStr">
@@ -3880,7 +3880,7 @@
       </c>
       <c r="M21" s="60" t="inlineStr">
         <is>
-          <t>▼1</t>
+          <t>▲10</t>
         </is>
       </c>
       <c r="N21" s="8" t="inlineStr">
@@ -3906,7 +3906,7 @@
       </c>
       <c r="S21" s="56" t="inlineStr">
         <is>
-          <t>▼7</t>
+          <t>▲11</t>
         </is>
       </c>
       <c r="T21" s="8" t="inlineStr">
@@ -3919,7 +3919,7 @@
       </c>
       <c r="V21" s="51" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>▲1</t>
         </is>
       </c>
       <c r="W21" s="8" t="inlineStr">
@@ -3945,7 +3945,7 @@
       </c>
       <c r="AB21" s="51" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>▲3</t>
         </is>
       </c>
       <c r="AC21" s="8" t="inlineStr">
@@ -3958,7 +3958,7 @@
       </c>
       <c r="AE21" s="51" t="inlineStr">
         <is>
-          <t>▲19</t>
+          <t>▲12</t>
         </is>
       </c>
       <c r="AF21" s="71" t="n">
@@ -3992,7 +3992,7 @@
       </c>
       <c r="G22" s="51" t="inlineStr">
         <is>
-          <t>▲2</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H22" s="96" t="inlineStr">
@@ -4005,7 +4005,7 @@
       </c>
       <c r="J22" s="51" t="inlineStr">
         <is>
-          <t>▼1</t>
+          <t>▲4</t>
         </is>
       </c>
       <c r="K22" s="28" t="inlineStr">
@@ -4018,7 +4018,7 @@
       </c>
       <c r="M22" s="60" t="inlineStr">
         <is>
-          <t>▼3</t>
+          <t>▼12</t>
         </is>
       </c>
       <c r="N22" s="8" t="inlineStr">
@@ -4031,7 +4031,7 @@
       </c>
       <c r="P22" s="51" t="inlineStr">
         <is>
-          <t>▼1</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Q22" s="95" t="inlineStr">
@@ -4044,7 +4044,7 @@
       </c>
       <c r="S22" s="56" t="inlineStr">
         <is>
-          <t>▲8</t>
+          <t>▼4</t>
         </is>
       </c>
       <c r="T22" s="8" t="inlineStr">
@@ -4083,7 +4083,7 @@
       </c>
       <c r="AB22" s="51" t="inlineStr">
         <is>
-          <t>▲1</t>
+          <t>▼1</t>
         </is>
       </c>
       <c r="AC22" s="8" t="inlineStr">
@@ -4130,7 +4130,7 @@
       </c>
       <c r="G23" s="51" t="inlineStr">
         <is>
-          <t>▼1</t>
+          <t>▲4</t>
         </is>
       </c>
       <c r="H23" s="96" t="inlineStr">
@@ -4143,7 +4143,7 @@
       </c>
       <c r="J23" s="51" t="inlineStr">
         <is>
-          <t>▼3</t>
+          <t>▲7</t>
         </is>
       </c>
       <c r="K23" s="28" t="inlineStr">
@@ -4156,7 +4156,7 @@
       </c>
       <c r="M23" s="63" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>▼1</t>
         </is>
       </c>
       <c r="N23" s="10" t="inlineStr">
@@ -4169,7 +4169,7 @@
       </c>
       <c r="P23" s="51" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>▼2</t>
         </is>
       </c>
       <c r="Q23" s="95" t="inlineStr">
@@ -4182,7 +4182,7 @@
       </c>
       <c r="S23" s="56" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>▲7</t>
         </is>
       </c>
       <c r="T23" s="8" t="inlineStr">
@@ -4221,7 +4221,7 @@
       </c>
       <c r="AB23" s="51" t="inlineStr">
         <is>
-          <t>▼1</t>
+          <t>▼5</t>
         </is>
       </c>
       <c r="AC23" s="8" t="inlineStr">
@@ -4268,7 +4268,7 @@
       </c>
       <c r="G24" s="52" t="inlineStr">
         <is>
-          <t>▼4</t>
+          <t>▼8</t>
         </is>
       </c>
       <c r="H24" s="98" t="inlineStr">
@@ -4294,7 +4294,7 @@
       </c>
       <c r="M24" s="61" t="inlineStr">
         <is>
-          <t>▲2</t>
+          <t>▲4</t>
         </is>
       </c>
       <c r="N24" s="11" t="inlineStr">
@@ -4307,7 +4307,7 @@
       </c>
       <c r="P24" s="52" t="inlineStr">
         <is>
-          <t>▼2</t>
+          <t>▼1</t>
         </is>
       </c>
       <c r="Q24" s="99" t="inlineStr">
@@ -4320,7 +4320,7 @@
       </c>
       <c r="S24" s="54" t="inlineStr">
         <is>
-          <t>▼4</t>
+          <t>▼8</t>
         </is>
       </c>
       <c r="T24" s="11" t="inlineStr">
@@ -4338,7 +4338,7 @@
       </c>
       <c r="W24" s="11" t="inlineStr">
         <is>
-          <t>비엔케이투자증권</t>
+          <t>한양증권</t>
         </is>
       </c>
       <c r="X24" s="11" t="n">
@@ -4359,7 +4359,7 @@
       </c>
       <c r="AB24" s="52" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>▲2</t>
         </is>
       </c>
       <c r="AC24" s="11" t="inlineStr">
@@ -4393,7 +4393,7 @@
       </c>
       <c r="D25" s="53" t="inlineStr">
         <is>
-          <t>▼1</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E25" s="7" t="inlineStr">
@@ -4406,7 +4406,7 @@
       </c>
       <c r="G25" s="53" t="inlineStr">
         <is>
-          <t>▼2</t>
+          <t>▼1</t>
         </is>
       </c>
       <c r="H25" s="100" t="inlineStr">
@@ -4419,7 +4419,7 @@
       </c>
       <c r="J25" s="53" t="inlineStr">
         <is>
-          <t>▼2</t>
+          <t>▼13</t>
         </is>
       </c>
       <c r="K25" s="24" t="inlineStr">
@@ -4432,7 +4432,7 @@
       </c>
       <c r="M25" s="62" t="inlineStr">
         <is>
-          <t>▲8</t>
+          <t>▼4</t>
         </is>
       </c>
       <c r="N25" s="7" t="inlineStr">
@@ -4445,7 +4445,7 @@
       </c>
       <c r="P25" s="53" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>▼1</t>
         </is>
       </c>
       <c r="Q25" s="93" t="inlineStr">
@@ -4458,7 +4458,7 @@
       </c>
       <c r="S25" s="53" t="inlineStr">
         <is>
-          <t>▼9</t>
+          <t>▼8</t>
         </is>
       </c>
       <c r="T25" s="7" t="inlineStr">
@@ -4476,7 +4476,7 @@
       </c>
       <c r="W25" s="7" t="inlineStr">
         <is>
-          <t>부국증권</t>
+          <t>비엔케이투자증권</t>
         </is>
       </c>
       <c r="X25" s="7" t="n">
@@ -4484,7 +4484,7 @@
       </c>
       <c r="Y25" s="53" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>▲1</t>
         </is>
       </c>
       <c r="Z25" s="7" t="inlineStr">
@@ -4497,7 +4497,7 @@
       </c>
       <c r="AB25" s="53" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>▼2</t>
         </is>
       </c>
       <c r="AC25" s="7" t="inlineStr">
@@ -4531,7 +4531,7 @@
       </c>
       <c r="D26" s="51" t="inlineStr">
         <is>
-          <t>▼1</t>
+          <t>▼2</t>
         </is>
       </c>
       <c r="E26" s="8" t="inlineStr">
@@ -4544,7 +4544,7 @@
       </c>
       <c r="G26" s="51" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>▼6</t>
         </is>
       </c>
       <c r="H26" s="96" t="inlineStr">
@@ -4557,7 +4557,7 @@
       </c>
       <c r="J26" s="51" t="inlineStr">
         <is>
-          <t>▲2</t>
+          <t>▲10</t>
         </is>
       </c>
       <c r="K26" s="28" t="inlineStr">
@@ -4570,7 +4570,7 @@
       </c>
       <c r="M26" s="60" t="inlineStr">
         <is>
-          <t>▲5</t>
+          <t>▲8</t>
         </is>
       </c>
       <c r="N26" s="8" t="inlineStr">
@@ -4583,7 +4583,7 @@
       </c>
       <c r="P26" s="53" t="inlineStr">
         <is>
-          <t>▼2</t>
+          <t>▼1</t>
         </is>
       </c>
       <c r="Q26" s="95" t="inlineStr">
@@ -4596,7 +4596,7 @@
       </c>
       <c r="S26" s="56" t="inlineStr">
         <is>
-          <t>▼5</t>
+          <t>▼16</t>
         </is>
       </c>
       <c r="T26" s="8" t="inlineStr">
@@ -4614,7 +4614,7 @@
       </c>
       <c r="W26" s="8" t="inlineStr">
         <is>
-          <t>우리투자증권(구.포스증권)</t>
+          <t>부국증권</t>
         </is>
       </c>
       <c r="X26" s="8" t="n">
@@ -4622,7 +4622,7 @@
       </c>
       <c r="Y26" s="51" t="inlineStr">
         <is>
-          <t>▲7</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Z26" s="8" t="inlineStr">
@@ -4695,7 +4695,7 @@
       </c>
       <c r="J27" s="51" t="inlineStr">
         <is>
-          <t>▼11</t>
+          <t>▼6</t>
         </is>
       </c>
       <c r="K27" s="28" t="inlineStr">
@@ -4708,7 +4708,7 @@
       </c>
       <c r="M27" s="60" t="inlineStr">
         <is>
-          <t>▲2</t>
+          <t>▲12</t>
         </is>
       </c>
       <c r="N27" s="8" t="inlineStr">
@@ -4721,7 +4721,7 @@
       </c>
       <c r="P27" s="51" t="inlineStr">
         <is>
-          <t>▲1</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Q27" s="95" t="inlineStr">
@@ -4734,7 +4734,7 @@
       </c>
       <c r="S27" s="56" t="inlineStr">
         <is>
-          <t>▲5</t>
+          <t>▼2</t>
         </is>
       </c>
       <c r="T27" s="8" t="inlineStr">
@@ -4752,7 +4752,7 @@
       </c>
       <c r="W27" s="8" t="inlineStr">
         <is>
-          <t>한양증권</t>
+          <t>우리투자증권(구.포스증권)</t>
         </is>
       </c>
       <c r="X27" s="8" t="n">
@@ -4760,7 +4760,7 @@
       </c>
       <c r="Y27" s="51" t="inlineStr">
         <is>
-          <t>▲1</t>
+          <t>▲7</t>
         </is>
       </c>
       <c r="Z27" s="8" t="inlineStr">
@@ -4773,7 +4773,7 @@
       </c>
       <c r="AB27" s="51" t="inlineStr">
         <is>
-          <t>▼1</t>
+          <t>-</t>
         </is>
       </c>
       <c r="AC27" s="8" t="inlineStr">
@@ -4820,7 +4820,7 @@
       </c>
       <c r="G28" s="51" t="inlineStr">
         <is>
-          <t>▼1</t>
+          <t>▲5</t>
         </is>
       </c>
       <c r="H28" s="96" t="inlineStr">
@@ -4833,7 +4833,7 @@
       </c>
       <c r="J28" s="51" t="inlineStr">
         <is>
-          <t>▲2</t>
+          <t>▲11</t>
         </is>
       </c>
       <c r="K28" s="28" t="inlineStr">
@@ -4846,7 +4846,7 @@
       </c>
       <c r="M28" s="60" t="inlineStr">
         <is>
-          <t>▼1</t>
+          <t>▲5</t>
         </is>
       </c>
       <c r="N28" s="8" t="inlineStr">
@@ -4859,7 +4859,7 @@
       </c>
       <c r="P28" s="51" t="inlineStr">
         <is>
-          <t>▼2</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Q28" s="95" t="inlineStr">
@@ -4872,7 +4872,7 @@
       </c>
       <c r="S28" s="51" t="inlineStr">
         <is>
-          <t>▼2</t>
+          <t>▲5</t>
         </is>
       </c>
       <c r="T28" s="8" t="inlineStr">
@@ -4885,7 +4885,7 @@
       </c>
       <c r="V28" s="51" t="inlineStr">
         <is>
-          <t>▼1</t>
+          <t>-</t>
         </is>
       </c>
       <c r="W28" s="8" t="inlineStr">
@@ -4911,7 +4911,7 @@
       </c>
       <c r="AB28" s="51" t="inlineStr">
         <is>
-          <t>▼1</t>
+          <t>▼3</t>
         </is>
       </c>
       <c r="AC28" s="8" t="inlineStr">
@@ -4958,7 +4958,7 @@
       </c>
       <c r="G29" s="51" t="inlineStr">
         <is>
-          <t>▼1</t>
+          <t>▲1</t>
         </is>
       </c>
       <c r="H29" s="96" t="inlineStr">
@@ -4971,7 +4971,7 @@
       </c>
       <c r="J29" s="51" t="inlineStr">
         <is>
-          <t>▼2</t>
+          <t>▲4</t>
         </is>
       </c>
       <c r="K29" s="28" t="inlineStr">
@@ -4984,7 +4984,7 @@
       </c>
       <c r="M29" s="60" t="inlineStr">
         <is>
-          <t>▼13</t>
+          <t>▼14</t>
         </is>
       </c>
       <c r="N29" s="8" t="inlineStr">
@@ -4997,7 +4997,7 @@
       </c>
       <c r="P29" s="51" t="inlineStr">
         <is>
-          <t>▼2</t>
+          <t>▼3</t>
         </is>
       </c>
       <c r="Q29" s="95" t="inlineStr">
@@ -5023,7 +5023,7 @@
       </c>
       <c r="V29" s="51" t="inlineStr">
         <is>
-          <t>▼1</t>
+          <t>▼2</t>
         </is>
       </c>
       <c r="W29" s="8" t="inlineStr">
@@ -5109,7 +5109,7 @@
       </c>
       <c r="J30" s="51" t="inlineStr">
         <is>
-          <t>▲1</t>
+          <t>▼13</t>
         </is>
       </c>
       <c r="K30" s="28" t="inlineStr">
@@ -5122,7 +5122,7 @@
       </c>
       <c r="M30" s="60" t="inlineStr">
         <is>
-          <t>▼3</t>
+          <t>▼14</t>
         </is>
       </c>
       <c r="N30" s="8" t="inlineStr">
@@ -5135,7 +5135,7 @@
       </c>
       <c r="P30" s="51" t="inlineStr">
         <is>
-          <t>▼1</t>
+          <t>▲1</t>
         </is>
       </c>
       <c r="Q30" s="95" t="inlineStr">
@@ -5148,7 +5148,7 @@
       </c>
       <c r="S30" s="56" t="inlineStr">
         <is>
-          <t>▼5</t>
+          <t>▼6</t>
         </is>
       </c>
       <c r="T30" s="8" t="inlineStr">
@@ -5161,12 +5161,12 @@
       </c>
       <c r="V30" s="51" t="inlineStr">
         <is>
-          <t>▼1</t>
+          <t>▲1</t>
         </is>
       </c>
       <c r="W30" s="8" t="inlineStr">
         <is>
-          <t>엘에스증권</t>
+          <t>카카오페이증권</t>
         </is>
       </c>
       <c r="X30" s="8" t="n">
@@ -5234,7 +5234,7 @@
       </c>
       <c r="G31" s="51" t="inlineStr">
         <is>
-          <t>▲5</t>
+          <t>▲8</t>
         </is>
       </c>
       <c r="H31" s="96" t="inlineStr">
@@ -5247,7 +5247,7 @@
       </c>
       <c r="J31" s="51" t="inlineStr">
         <is>
-          <t>▼5</t>
+          <t>▼2</t>
         </is>
       </c>
       <c r="K31" s="28" t="inlineStr">
@@ -5260,7 +5260,7 @@
       </c>
       <c r="M31" s="60" t="inlineStr">
         <is>
-          <t>▼10</t>
+          <t>▼14</t>
         </is>
       </c>
       <c r="N31" s="8" t="inlineStr">
@@ -5286,7 +5286,7 @@
       </c>
       <c r="S31" s="56" t="inlineStr">
         <is>
-          <t>▼2</t>
+          <t>▼10</t>
         </is>
       </c>
       <c r="T31" s="8" t="inlineStr">
@@ -5299,12 +5299,12 @@
       </c>
       <c r="V31" s="51" t="inlineStr">
         <is>
-          <t>▼1</t>
+          <t>▼2</t>
         </is>
       </c>
       <c r="W31" s="8" t="inlineStr">
         <is>
-          <t>카카오페이증권</t>
+          <t>엘에스증권</t>
         </is>
       </c>
       <c r="X31" s="8" t="n">
@@ -5372,7 +5372,7 @@
       </c>
       <c r="G32" s="51" t="inlineStr">
         <is>
-          <t>▲1</t>
+          <t>▲5</t>
         </is>
       </c>
       <c r="H32" s="96" t="inlineStr">
@@ -5385,7 +5385,7 @@
       </c>
       <c r="J32" s="51" t="inlineStr">
         <is>
-          <t>▲1</t>
+          <t>▼10</t>
         </is>
       </c>
       <c r="K32" s="28" t="inlineStr">
@@ -5398,7 +5398,7 @@
       </c>
       <c r="M32" s="60" t="inlineStr">
         <is>
-          <t>▲2</t>
+          <t>▼10</t>
         </is>
       </c>
       <c r="N32" s="8" t="inlineStr">
@@ -5411,7 +5411,7 @@
       </c>
       <c r="P32" s="51" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>▲2</t>
         </is>
       </c>
       <c r="Q32" s="95" t="inlineStr">
@@ -5424,7 +5424,7 @@
       </c>
       <c r="S32" s="56" t="inlineStr">
         <is>
-          <t>▼5</t>
+          <t>▼9</t>
         </is>
       </c>
       <c r="T32" s="8" t="inlineStr">
@@ -5437,7 +5437,7 @@
       </c>
       <c r="V32" s="51" t="inlineStr">
         <is>
-          <t>▼1</t>
+          <t>▼2</t>
         </is>
       </c>
       <c r="W32" s="8" t="inlineStr">
@@ -5463,7 +5463,7 @@
       </c>
       <c r="AB32" s="51" t="inlineStr">
         <is>
-          <t>▼1</t>
+          <t>▲1</t>
         </is>
       </c>
       <c r="AC32" s="8" t="inlineStr">
@@ -5497,7 +5497,7 @@
       </c>
       <c r="D33" s="51" t="inlineStr">
         <is>
-          <t>▲1</t>
+          <t>▲2</t>
         </is>
       </c>
       <c r="E33" s="8" t="inlineStr">
@@ -5510,7 +5510,7 @@
       </c>
       <c r="G33" s="51" t="inlineStr">
         <is>
-          <t>▼3</t>
+          <t>▼8</t>
         </is>
       </c>
       <c r="H33" s="8" t="inlineStr">
@@ -5523,7 +5523,7 @@
       </c>
       <c r="J33" s="56" t="inlineStr">
         <is>
-          <t>▼4</t>
+          <t>▼14</t>
         </is>
       </c>
       <c r="K33" s="8" t="inlineStr">
@@ -5536,7 +5536,7 @@
       </c>
       <c r="M33" s="56" t="inlineStr">
         <is>
-          <t>▼3</t>
+          <t>▼4</t>
         </is>
       </c>
       <c r="N33" s="29" t="inlineStr">
@@ -5549,7 +5549,7 @@
       </c>
       <c r="P33" s="56" t="inlineStr">
         <is>
-          <t>▼2</t>
+          <t>▼1</t>
         </is>
       </c>
       <c r="Q33" s="8" t="inlineStr">
@@ -5562,7 +5562,7 @@
       </c>
       <c r="S33" s="56" t="inlineStr">
         <is>
-          <t>▲1</t>
+          <t>▼7</t>
         </is>
       </c>
       <c r="T33" s="8" t="inlineStr">
@@ -5580,7 +5580,7 @@
       </c>
       <c r="W33" s="8" t="inlineStr">
         <is>
-          <t>케이프투자증권</t>
+          <t>흥국증권</t>
         </is>
       </c>
       <c r="X33" s="8" t="n">
@@ -5635,7 +5635,7 @@
       </c>
       <c r="D34" s="54" t="inlineStr">
         <is>
-          <t>▼2</t>
+          <t>▼1</t>
         </is>
       </c>
       <c r="E34" s="11" t="inlineStr">
@@ -5674,7 +5674,7 @@
       </c>
       <c r="M34" s="54" t="inlineStr">
         <is>
-          <t>▼2</t>
+          <t>▲1</t>
         </is>
       </c>
       <c r="N34" s="32" t="inlineStr">
@@ -5687,7 +5687,7 @@
       </c>
       <c r="P34" s="54" t="inlineStr">
         <is>
-          <t>▲3</t>
+          <t>▲1</t>
         </is>
       </c>
       <c r="Q34" s="11" t="inlineStr">
@@ -5700,12 +5700,12 @@
       </c>
       <c r="S34" s="54" t="inlineStr">
         <is>
-          <t>▼3</t>
+          <t>▼23</t>
         </is>
       </c>
       <c r="T34" s="11" t="inlineStr">
         <is>
-          <t>케이프투자증권</t>
+          <t>코리아에셋투자증권</t>
         </is>
       </c>
       <c r="U34" s="11" t="n">
@@ -5718,7 +5718,7 @@
       </c>
       <c r="W34" s="11" t="inlineStr">
         <is>
-          <t>코리아에셋투자증권</t>
+          <t>리딩투자증권</t>
         </is>
       </c>
       <c r="X34" s="11" t="n">
@@ -5739,7 +5739,7 @@
       </c>
       <c r="AB34" s="52" t="inlineStr">
         <is>
-          <t>▼1</t>
+          <t>▼3</t>
         </is>
       </c>
       <c r="AC34" s="11" t="inlineStr">
@@ -5752,7 +5752,7 @@
       </c>
       <c r="AE34" s="52" t="inlineStr">
         <is>
-          <t>▼1</t>
+          <t>-</t>
         </is>
       </c>
       <c r="AF34" s="72" t="n">
@@ -5773,7 +5773,7 @@
       </c>
       <c r="D35" s="51" t="inlineStr">
         <is>
-          <t>▼2</t>
+          <t>▼3</t>
         </is>
       </c>
       <c r="E35" s="7" t="inlineStr">
@@ -5786,7 +5786,7 @@
       </c>
       <c r="G35" s="51" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>▼1</t>
         </is>
       </c>
       <c r="H35" s="7" t="inlineStr">
@@ -5799,7 +5799,7 @@
       </c>
       <c r="J35" s="58" t="inlineStr">
         <is>
-          <t>▲2</t>
+          <t>▲5</t>
         </is>
       </c>
       <c r="K35" s="7" t="inlineStr">
@@ -5825,7 +5825,7 @@
       </c>
       <c r="P35" s="58" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>▼2</t>
         </is>
       </c>
       <c r="Q35" s="7" t="inlineStr">
@@ -5838,12 +5838,12 @@
       </c>
       <c r="S35" s="58" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>▼1</t>
         </is>
       </c>
       <c r="T35" s="7" t="inlineStr">
         <is>
-          <t>코리아에셋투자증권</t>
+          <t>케이프투자증권</t>
         </is>
       </c>
       <c r="U35" s="7" t="n">
@@ -5851,12 +5851,12 @@
       </c>
       <c r="V35" s="53" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>▼1</t>
         </is>
       </c>
       <c r="W35" s="7" t="inlineStr">
         <is>
-          <t>키움증권</t>
+          <t>케이프투자증권</t>
         </is>
       </c>
       <c r="X35" s="7" t="n">
@@ -5890,7 +5890,7 @@
       </c>
       <c r="AE35" s="53" t="inlineStr">
         <is>
-          <t>▼1</t>
+          <t>-</t>
         </is>
       </c>
       <c r="AF35" s="73" t="n">
@@ -5911,7 +5911,7 @@
       </c>
       <c r="D36" s="51" t="inlineStr">
         <is>
-          <t>▼1</t>
+          <t>▼2</t>
         </is>
       </c>
       <c r="E36" s="8" t="inlineStr">
@@ -5924,7 +5924,7 @@
       </c>
       <c r="G36" s="51" t="inlineStr">
         <is>
-          <t>▼2</t>
+          <t>▼1</t>
         </is>
       </c>
       <c r="H36" s="8" t="inlineStr">
@@ -5937,7 +5937,7 @@
       </c>
       <c r="J36" s="56" t="inlineStr">
         <is>
-          <t>▼1</t>
+          <t>▼5</t>
         </is>
       </c>
       <c r="K36" s="8" t="inlineStr">
@@ -5950,7 +5950,7 @@
       </c>
       <c r="M36" s="56" t="inlineStr">
         <is>
-          <t>▼1</t>
+          <t>▼11</t>
         </is>
       </c>
       <c r="N36" s="29" t="inlineStr">
@@ -5963,7 +5963,7 @@
       </c>
       <c r="P36" s="56" t="inlineStr">
         <is>
-          <t>▼2</t>
+          <t>▲2</t>
         </is>
       </c>
       <c r="Q36" s="8" t="inlineStr">
@@ -5976,7 +5976,7 @@
       </c>
       <c r="S36" s="56" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>▼7</t>
         </is>
       </c>
       <c r="T36" s="8" t="inlineStr">
@@ -5989,7 +5989,7 @@
       </c>
       <c r="V36" s="51" t="inlineStr">
         <is>
-          <t>▼3</t>
+          <t>▼2</t>
         </is>
       </c>
       <c r="W36" s="8" t="inlineStr">
@@ -6015,7 +6015,7 @@
       </c>
       <c r="AB36" s="51" t="inlineStr">
         <is>
-          <t>▲1</t>
+          <t>▼2</t>
         </is>
       </c>
       <c r="AC36" s="8" t="inlineStr">
@@ -6028,7 +6028,7 @@
       </c>
       <c r="AE36" s="51" t="inlineStr">
         <is>
-          <t>▼1</t>
+          <t>-</t>
         </is>
       </c>
       <c r="AF36" s="71" t="n">
@@ -6062,7 +6062,7 @@
       </c>
       <c r="G37" s="51" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>▼22</t>
         </is>
       </c>
       <c r="H37" s="8" t="inlineStr">
@@ -6075,7 +6075,7 @@
       </c>
       <c r="J37" s="56" t="inlineStr">
         <is>
-          <t>▼1</t>
+          <t>▼31</t>
         </is>
       </c>
       <c r="K37" s="8" t="inlineStr">
@@ -6088,7 +6088,7 @@
       </c>
       <c r="M37" s="56" t="inlineStr">
         <is>
-          <t>▼1</t>
+          <t>▼31</t>
         </is>
       </c>
       <c r="N37" s="29" t="inlineStr">
@@ -6101,7 +6101,7 @@
       </c>
       <c r="P37" s="56" t="inlineStr">
         <is>
-          <t>▲1</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Q37" s="8" t="inlineStr">
@@ -6132,7 +6132,7 @@
       </c>
       <c r="W37" s="8" t="inlineStr">
         <is>
-          <t>리딩투자증권</t>
+          <t>키움증권</t>
         </is>
       </c>
       <c r="X37" s="8" t="n">
@@ -6153,7 +6153,7 @@
       </c>
       <c r="AB37" s="51" t="inlineStr">
         <is>
-          <t>▼3</t>
+          <t>▼1</t>
         </is>
       </c>
       <c r="AC37" s="8" t="inlineStr">
@@ -6166,7 +6166,7 @@
       </c>
       <c r="AE37" s="51" t="inlineStr">
         <is>
-          <t>▼1</t>
+          <t>-</t>
         </is>
       </c>
       <c r="AF37" s="71" t="n">
@@ -6200,7 +6200,7 @@
       </c>
       <c r="G38" s="51" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>▲3</t>
         </is>
       </c>
       <c r="H38" s="8" t="inlineStr">
@@ -6213,7 +6213,7 @@
       </c>
       <c r="J38" s="56" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>▼14</t>
         </is>
       </c>
       <c r="K38" s="8" t="inlineStr">
@@ -6226,7 +6226,7 @@
       </c>
       <c r="M38" s="56" t="inlineStr">
         <is>
-          <t>▼1</t>
+          <t>▼11</t>
         </is>
       </c>
       <c r="N38" s="29" t="inlineStr">
@@ -6239,7 +6239,7 @@
       </c>
       <c r="P38" s="56" t="inlineStr">
         <is>
-          <t>▲1</t>
+          <t>▼2</t>
         </is>
       </c>
       <c r="Q38" s="8" t="inlineStr">
@@ -6265,12 +6265,12 @@
       </c>
       <c r="V38" s="51" t="inlineStr">
         <is>
-          <t>▼1</t>
+          <t>-</t>
         </is>
       </c>
       <c r="W38" s="8" t="inlineStr">
         <is>
-          <t>DS투자증권</t>
+          <t>코리아에셋투자증권</t>
         </is>
       </c>
       <c r="X38" s="8" t="n">
@@ -6291,7 +6291,7 @@
       </c>
       <c r="AB38" s="51" t="inlineStr">
         <is>
-          <t>▼3</t>
+          <t>▲1</t>
         </is>
       </c>
       <c r="AC38" s="8" t="inlineStr">
@@ -6304,7 +6304,7 @@
       </c>
       <c r="AE38" s="51" t="inlineStr">
         <is>
-          <t>▼1</t>
+          <t>-</t>
         </is>
       </c>
       <c r="AF38" s="71" t="n">
@@ -6338,7 +6338,7 @@
       </c>
       <c r="G39" s="51" t="inlineStr">
         <is>
-          <t>▲1</t>
+          <t>▼16</t>
         </is>
       </c>
       <c r="H39" s="10" t="inlineStr">
@@ -6351,7 +6351,7 @@
       </c>
       <c r="J39" s="59" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>▼11</t>
         </is>
       </c>
       <c r="K39" s="10" t="inlineStr">
@@ -6364,7 +6364,7 @@
       </c>
       <c r="M39" s="59" t="inlineStr">
         <is>
-          <t>▼1</t>
+          <t>▼9</t>
         </is>
       </c>
       <c r="N39" s="36" t="inlineStr">
@@ -6377,7 +6377,7 @@
       </c>
       <c r="P39" s="59" t="inlineStr">
         <is>
-          <t>▼3</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Q39" s="10" t="inlineStr">
@@ -6403,12 +6403,12 @@
       </c>
       <c r="V39" s="51" t="inlineStr">
         <is>
-          <t>▼1</t>
+          <t>▼2</t>
         </is>
       </c>
       <c r="W39" s="10" t="inlineStr">
         <is>
-          <t>흥국증권</t>
+          <t>DS투자증권</t>
         </is>
       </c>
       <c r="X39" s="10" t="n">
@@ -6429,7 +6429,7 @@
       </c>
       <c r="AB39" s="57" t="inlineStr">
         <is>
-          <t>▼3</t>
+          <t>▼4</t>
         </is>
       </c>
       <c r="AC39" s="10" t="inlineStr">
@@ -6442,7 +6442,7 @@
       </c>
       <c r="AE39" s="57" t="inlineStr">
         <is>
-          <t>▼1</t>
+          <t>-</t>
         </is>
       </c>
       <c r="AF39" s="75" t="n">
@@ -6476,7 +6476,7 @@
       </c>
       <c r="G40" s="51" t="inlineStr">
         <is>
-          <t>▼1</t>
+          <t>▼4</t>
         </is>
       </c>
       <c r="H40" s="8" t="inlineStr">
@@ -6502,7 +6502,7 @@
       </c>
       <c r="M40" s="56" t="inlineStr">
         <is>
-          <t>▼1</t>
+          <t>▼3</t>
         </is>
       </c>
       <c r="N40" s="29" t="inlineStr">
@@ -6567,7 +6567,7 @@
       </c>
       <c r="AB40" s="51" t="inlineStr">
         <is>
-          <t>▼1</t>
+          <t>▼3</t>
         </is>
       </c>
       <c r="AC40" s="8" t="inlineStr">
@@ -6580,7 +6580,7 @@
       </c>
       <c r="AE40" s="51" t="inlineStr">
         <is>
-          <t>▼1</t>
+          <t>-</t>
         </is>
       </c>
       <c r="AF40" s="71" t="n">
@@ -6614,7 +6614,7 @@
       </c>
       <c r="G41" s="52" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>▼20</t>
         </is>
       </c>
       <c r="H41" s="11" t="inlineStr">
@@ -6627,7 +6627,7 @@
       </c>
       <c r="J41" s="54" t="inlineStr">
         <is>
-          <t>▼1</t>
+          <t>▼4</t>
         </is>
       </c>
       <c r="K41" s="11" t="inlineStr">
